--- a/20210701_CJUGSEND_Dictionary_v3.0.xlsx
+++ b/20210701_CJUGSEND_Dictionary_v3.0.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88A47452-A229-40D8-8DCE-2661AE2D61B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68C63C3F-BAC3-4F55-B1A9-33B44004CF56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12252" tabRatio="815" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21900" yWindow="1035" windowWidth="17145" windowHeight="13800" tabRatio="815" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ReadMe" sheetId="2" r:id="rId1"/>
-    <sheet name="Version" sheetId="5" r:id="rId2"/>
-    <sheet name="Instruction" sheetId="6" r:id="rId3"/>
-    <sheet name="CJUGSEND Terminology" sheetId="3" r:id="rId4"/>
+    <sheet name="Instruction" sheetId="6" r:id="rId2"/>
+    <sheet name="CJUGSEND Terminology" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'CJUGSEND Terminology'!$A$1:$F$350</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'CJUGSEND Terminology'!$A$1:$F$350</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1118" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1105" uniqueCount="399">
   <si>
     <t>Yes</t>
   </si>
@@ -1330,40 +1329,36 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>1.00</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>Standard for Exchange of Nonclinical Data Implementation Guide: Nonclinical Studies Version 3.0 (CDISC)</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>#</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>Sheet Name</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>Description</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>ReadMe</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>Version</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>Instruction</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>CJUGSEND Terminology</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>#</t>
@@ -1395,7 +1390,7 @@
   </si>
   <si>
     <t>Standard for Exchange of Nonclinical Data Implementation Guide: Nonclinical Studies Version 3.1 (CDISC)</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>SAMPLE AUTOLYZED</t>
@@ -1407,10 +1402,6 @@
   </si>
   <si>
     <t>TFREASND</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>2019-04-19</t>
     <phoneticPr fontId="4"/>
   </si>
   <si>
@@ -1493,7 +1484,7 @@
       </rPr>
       <t>サブチームリーダー</t>
     </r>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <r>
@@ -1522,7 +1513,7 @@
     <rPh sb="25" eb="27">
       <t>ジョウホウ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <r>
@@ -1641,7 +1632,7 @@
     <rPh sb="5" eb="7">
       <t>セツメイ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <r>
@@ -1662,7 +1653,7 @@
     <rPh sb="9" eb="11">
       <t>ジコウ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <r>
@@ -1680,7 +1671,7 @@
     <rPh sb="2" eb="4">
       <t>リレキ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <r>
@@ -1704,7 +1695,7 @@
     <rPh sb="14" eb="16">
       <t>セツメイ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <r>
@@ -1863,7 +1854,7 @@
     <rPh sb="85" eb="86">
       <t>フク</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <r>
@@ -2139,11 +2130,7 @@
   <si>
     <t>Introduction of check tool for SEND datasets via check list prepared by CDISC Japan User Group (CJUG) SEND team 
 (2019, PhUSE Computer Science Symposium)</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>2.00</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <r>
@@ -2166,7 +2153,7 @@
     <rPh sb="5" eb="6">
       <t>メイ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <r>
@@ -2193,7 +2180,7 @@
     <rPh sb="10" eb="12">
       <t>ジショ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <r>
@@ -2216,7 +2203,7 @@
     <rPh sb="0" eb="3">
       <t>サクセイシャ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <r>
@@ -2257,7 +2244,7 @@
       <t xml:space="preserve"> 
 (CDISC Japan User Group, SEND team, QC subteam)</t>
     </r>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <r>
@@ -2280,7 +2267,7 @@
     <rPh sb="0" eb="2">
       <t>セツメイ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <r>
@@ -2560,7 +2547,7 @@
     <rPh sb="435" eb="436">
       <t>ネガ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <r>
@@ -2583,7 +2570,7 @@
     <rPh sb="0" eb="4">
       <t>メンセキジコウ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <r>
@@ -2837,7 +2824,7 @@
     <rPh sb="187" eb="189">
       <t>カクニン</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <r>
@@ -2863,7 +2850,7 @@
     <rPh sb="2" eb="4">
       <t>ブンケン</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <r>
@@ -2889,7 +2876,7 @@
     <rPh sb="2" eb="4">
       <t>シリョウ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <r>
@@ -2981,7 +2968,7 @@
     <rPh sb="57" eb="59">
       <t>ネンカイ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <r>
@@ -3070,7 +3057,7 @@
     <rPh sb="50" eb="51">
       <t>カイ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <r>
@@ -3179,7 +3166,7 @@
     <rPh sb="57" eb="59">
       <t>ネンカイ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <r>
@@ -3284,7 +3271,7 @@
     <rPh sb="80" eb="82">
       <t>ソウカイ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <r>
@@ -3333,9 +3320,58 @@
     <rPh sb="35" eb="36">
       <t>ノ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>Study Data Technical Conformance Guide v. 4.7(FDA)</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>FDA Business Rules v1.5 (FDA)</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>FDA Validator Rules v1.5 (FDA)</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <r>
+      <t>SEND</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>対応における毒性研究者の必要性と</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>CJUG SEND</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>データチェック項目一覧の有用性</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (2020, </t>
+    </r>
     <r>
       <rPr>
         <sz val="10"/>
@@ -3343,17 +3379,16 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>変更履歴</t>
-    </r>
-    <rPh sb="0" eb="2">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>リレキ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
+      <t>第</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>47</t>
+    </r>
     <r>
       <rPr>
         <sz val="10"/>
@@ -3361,14 +3396,16 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>日時</t>
-    </r>
-    <rPh sb="0" eb="2">
-      <t>ニチジ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
+      <t>回</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
     <r>
       <rPr>
         <sz val="10"/>
@@ -3376,14 +3413,74 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>版数</t>
-    </r>
-    <rPh sb="0" eb="2">
-      <t>ハンスウ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
+      <t>日本毒性学会年会</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <rPh sb="52" eb="53">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>ニホン</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>ドクセイ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>ガッカイ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>ネンカイ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <r>
+      <t>SEND</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>データセットの品質確保に関する</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>CJUG SEND</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>チェックツールの有用性</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (2021, </t>
+    </r>
     <r>
       <rPr>
         <sz val="10"/>
@@ -3391,17 +3488,16 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>新規作成</t>
-    </r>
-    <rPh sb="0" eb="2">
-      <t>シンキ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
+      <t>第</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>48</t>
+    </r>
     <r>
       <rPr>
         <sz val="10"/>
@@ -3409,8 +3505,7 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>変更：
-・シート「</t>
+      <t>回</t>
     </r>
     <r>
       <rPr>
@@ -3418,7 +3513,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>ReadMe</t>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -3427,8 +3522,7 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>」：公開時点の最新情報へ変更
-・シート「</t>
+      <t>日本毒性学会年会</t>
     </r>
     <r>
       <rPr>
@@ -3436,8 +3530,117 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>CJUGSEND Terminology</t>
-    </r>
+      <t>)</t>
+    </r>
+    <rPh sb="47" eb="48">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>ニホン</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>ドクセイ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>ガッカイ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>ネンカイ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>秋葉 晃次 (三井Ｅ＆Ｓシステム技研株式会社), 魚田 孝志 (株式会社ＣＡＣクロア), 牛丸 忠士（株式会社イナリサーチ）, 加賀伸彦（持田製薬株式会社）, 金子 吉史 (杏林製薬株式会社), 北原 輝和 (インステムジャパン株式会社), 佐藤 玄 (エーザイ株式会社), 佐藤 耕一 (株式会社タクミインフォメーションテクノロジー), 諏訪 浩一 (株式会社ボゾリサーチセンター), 土屋 待希 (富士通株式会社),  高見 清佳 (株式会社日本バイオリサーチセンター), 中澤　千弘 (エーザイ株式会社), 中野 薫, 浜田 淳 (日本たばこ株式会社), 藤村 義則 (富士通株式会社), 堀川 真一 (株式会社イナリサーチ), 益崎 泰宏 (日本たばこ株式会社), 松村美沙 (塩野義製薬株式会社), 向井 東希, 守田 淳哉 (大正製薬株式会社), 保田 昂之 (株式会社CACクロア), 山本 大 (株式会社LSIメディエンス), 榊原 雄太 (協和キリン株式会社)*</t>
+    <rPh sb="18" eb="22">
+      <t>カブシキガイシャ</t>
+    </rPh>
+    <rPh sb="32" eb="36">
+      <t>カブシキガイシャ</t>
+    </rPh>
+    <rPh sb="87" eb="89">
+      <t>キョウリン</t>
+    </rPh>
+    <rPh sb="89" eb="91">
+      <t>セイヤク</t>
+    </rPh>
+    <rPh sb="91" eb="95">
+      <t>カブシキガイシャ</t>
+    </rPh>
+    <rPh sb="114" eb="118">
+      <t>カブシキガイシャ</t>
+    </rPh>
+    <rPh sb="131" eb="135">
+      <t>カブシキガイシャ</t>
+    </rPh>
+    <rPh sb="145" eb="149">
+      <t>カブシキガイシャ</t>
+    </rPh>
+    <rPh sb="194" eb="196">
+      <t>ツチヤ</t>
+    </rPh>
+    <rPh sb="201" eb="204">
+      <t>フジツウ</t>
+    </rPh>
+    <rPh sb="204" eb="208">
+      <t>カブシキガイシャ</t>
+    </rPh>
+    <rPh sb="269" eb="271">
+      <t>ニホン</t>
+    </rPh>
+    <rPh sb="274" eb="278">
+      <t>カブシキガイシャ</t>
+    </rPh>
+    <rPh sb="288" eb="291">
+      <t>フジツウ</t>
+    </rPh>
+    <rPh sb="291" eb="293">
+      <t>カブシキ</t>
+    </rPh>
+    <rPh sb="293" eb="295">
+      <t>ガイシャ</t>
+    </rPh>
+    <rPh sb="298" eb="300">
+      <t>ホリカワ</t>
+    </rPh>
+    <rPh sb="301" eb="303">
+      <t>シンイチ</t>
+    </rPh>
+    <rPh sb="305" eb="309">
+      <t>カブシキガイシャ</t>
+    </rPh>
+    <rPh sb="369" eb="371">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="371" eb="373">
+      <t>セイヤク</t>
+    </rPh>
+    <rPh sb="373" eb="377">
+      <t>カブシキガイシャ</t>
+    </rPh>
+    <rPh sb="387" eb="391">
+      <t>カブシキガイシャ</t>
+    </rPh>
+    <rPh sb="406" eb="410">
+      <t>カブシキガイシャ</t>
+    </rPh>
+    <rPh sb="422" eb="424">
+      <t>サカキバラ</t>
+    </rPh>
+    <rPh sb="425" eb="427">
+      <t>ユウタ</t>
+    </rPh>
+    <rPh sb="429" eb="431">
+      <t>キョウワ</t>
+    </rPh>
+    <rPh sb="434" eb="438">
+      <t>カブシキガイシャ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -3445,7 +3648,7 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>」：</t>
+      <t>ご意見ございましたら</t>
     </r>
     <r>
       <rPr>
@@ -3453,8 +3656,33 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">
-</t>
+      <t>CJUG SEND</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>チーム代表メール（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>cjug-sendteam@umin.ac.jp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>）</t>
     </r>
     <r>
       <rPr>
@@ -3463,479 +3691,8 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>　・</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>SSPONSOR, TSLOC, TSNAM, TSTFLOC, TSTFNAM</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>を最新情報へ更新</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>・その他、誤記修正</t>
-    </r>
-    <rPh sb="0" eb="2">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="101" eb="103">
-      <t>サイシン</t>
-    </rPh>
-    <rPh sb="103" eb="105">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="106" eb="108">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="112" eb="113">
-      <t>タ</t>
-    </rPh>
-    <rPh sb="114" eb="116">
-      <t>ゴキ</t>
-    </rPh>
-    <rPh sb="116" eb="118">
-      <t>シュウセイ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>2020-05-01</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>3.00</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>変更：
-・シート「ReadMe」：公開時点の最新情報へ変更
-・シート「CJUGSEND Terminology」：
-　・SSPONSOR, TSLOC, TSNAM, TSTFLOC, TSTFNAMを最新情報へ更新
-・その他、誤記修正</t>
-    <rPh sb="0" eb="2">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="101" eb="103">
-      <t>サイシン</t>
-    </rPh>
-    <rPh sb="103" eb="105">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="106" eb="108">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="112" eb="113">
-      <t>タ</t>
-    </rPh>
-    <rPh sb="114" eb="116">
-      <t>ゴキ</t>
-    </rPh>
-    <rPh sb="116" eb="118">
-      <t>シュウセイ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>Study Data Technical Conformance Guide v. 4.7(FDA)</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>FDA Business Rules v1.5 (FDA)</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>FDA Validator Rules v1.5 (FDA)</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <r>
-      <t>SEND</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>対応における毒性研究者の必要性と</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>CJUG SEND</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>データチェック項目一覧の有用性</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (2020, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>第</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>47</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>回</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>日本毒性学会年会</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <rPh sb="52" eb="53">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="55" eb="56">
-      <t>カイ</t>
-    </rPh>
-    <rPh sb="57" eb="59">
-      <t>ニホン</t>
-    </rPh>
-    <rPh sb="59" eb="61">
-      <t>ドクセイ</t>
-    </rPh>
-    <rPh sb="61" eb="63">
-      <t>ガッカイ</t>
-    </rPh>
-    <rPh sb="63" eb="65">
-      <t>ネンカイ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <r>
-      <t>SEND</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>データセットの品質確保に関する</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>CJUG SEND</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>チェックツールの有用性</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (2021, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>第</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>48</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>回</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>日本毒性学会年会</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <rPh sb="47" eb="48">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="50" eb="51">
-      <t>カイ</t>
-    </rPh>
-    <rPh sb="52" eb="54">
-      <t>ニホン</t>
-    </rPh>
-    <rPh sb="54" eb="56">
-      <t>ドクセイ</t>
-    </rPh>
-    <rPh sb="56" eb="58">
-      <t>ガッカイ</t>
-    </rPh>
-    <rPh sb="58" eb="60">
-      <t>ネンカイ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>秋葉 晃次 (三井Ｅ＆Ｓシステム技研株式会社), 魚田 孝志 (株式会社ＣＡＣクロア), 牛丸 忠士（株式会社イナリサーチ）, 加賀伸彦（持田製薬株式会社）, 金子 吉史 (杏林製薬株式会社), 北原 輝和 (インステムジャパン株式会社), 佐藤 玄 (エーザイ株式会社), 佐藤 耕一 (株式会社タクミインフォメーションテクノロジー), 諏訪 浩一 (株式会社ボゾリサーチセンター), 土屋 待希 (富士通株式会社),  高見 清佳 (株式会社日本バイオリサーチセンター), 中澤　千弘 (エーザイ株式会社), 中野 薫, 浜田 淳 (日本たばこ株式会社), 藤村 義則 (富士通株式会社), 堀川 真一 (株式会社イナリサーチ), 益崎 泰宏 (日本たばこ株式会社), 松村美沙 (塩野義製薬株式会社), 向井 東希, 守田 淳哉 (大正製薬株式会社), 保田 昂之 (株式会社CACクロア), 山本 大 (株式会社LSIメディエンス), 榊原 雄太 (協和キリン株式会社)*</t>
-    <rPh sb="18" eb="22">
-      <t>カブシキガイシャ</t>
-    </rPh>
-    <rPh sb="32" eb="36">
-      <t>カブシキガイシャ</t>
-    </rPh>
-    <rPh sb="87" eb="89">
-      <t>キョウリン</t>
-    </rPh>
-    <rPh sb="89" eb="91">
-      <t>セイヤク</t>
-    </rPh>
-    <rPh sb="91" eb="95">
-      <t>カブシキガイシャ</t>
-    </rPh>
-    <rPh sb="114" eb="118">
-      <t>カブシキガイシャ</t>
-    </rPh>
-    <rPh sb="131" eb="135">
-      <t>カブシキガイシャ</t>
-    </rPh>
-    <rPh sb="145" eb="149">
-      <t>カブシキガイシャ</t>
-    </rPh>
-    <rPh sb="194" eb="196">
-      <t>ツチヤ</t>
-    </rPh>
-    <rPh sb="201" eb="204">
-      <t>フジツウ</t>
-    </rPh>
-    <rPh sb="204" eb="208">
-      <t>カブシキガイシャ</t>
-    </rPh>
-    <rPh sb="269" eb="271">
-      <t>ニホン</t>
-    </rPh>
-    <rPh sb="274" eb="278">
-      <t>カブシキガイシャ</t>
-    </rPh>
-    <rPh sb="288" eb="291">
-      <t>フジツウ</t>
-    </rPh>
-    <rPh sb="291" eb="293">
-      <t>カブシキ</t>
-    </rPh>
-    <rPh sb="293" eb="295">
-      <t>ガイシャ</t>
-    </rPh>
-    <rPh sb="298" eb="300">
-      <t>ホリカワ</t>
-    </rPh>
-    <rPh sb="301" eb="303">
-      <t>シンイチ</t>
-    </rPh>
-    <rPh sb="305" eb="309">
-      <t>カブシキガイシャ</t>
-    </rPh>
-    <rPh sb="369" eb="371">
-      <t>タイショウ</t>
-    </rPh>
-    <rPh sb="371" eb="373">
-      <t>セイヤク</t>
-    </rPh>
-    <rPh sb="373" eb="377">
-      <t>カブシキガイシャ</t>
-    </rPh>
-    <rPh sb="387" eb="391">
-      <t>カブシキガイシャ</t>
-    </rPh>
-    <rPh sb="406" eb="410">
-      <t>カブシキガイシャ</t>
-    </rPh>
-    <rPh sb="422" eb="424">
-      <t>サカキバラ</t>
-    </rPh>
-    <rPh sb="425" eb="427">
-      <t>ユウタ</t>
-    </rPh>
-    <rPh sb="429" eb="431">
-      <t>キョウワ</t>
-    </rPh>
-    <rPh sb="434" eb="438">
-      <t>カブシキガイシャ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>ご意見ございましたら</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>CJUG SEND</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>チーム代表メール（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>cjug-sendteam@umin.ac.jp</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
       <t>までお願いいたします。</t>
     </r>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>2021-07-01</t>
     <phoneticPr fontId="4"/>
   </si>
   <si>
@@ -3978,7 +3735,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -4005,11 +3762,6 @@
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
-    </font>
-    <font>
-      <sz val="6"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -4050,7 +3802,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4060,12 +3812,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="43"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4117,11 +3863,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4153,7 +3899,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4162,10 +3908,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4190,26 +3936,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -4563,22 +4294,22 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
@@ -4586,12 +4317,12 @@
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="155.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4599,92 +4330,92 @@
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="51.6" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="22" t="s">
-        <v>404</v>
+        <v>393</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="22" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="22" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="20" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="22" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="22" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A22" s="22" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="22" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A24" s="22" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="22" t="s">
-        <v>405</v>
+        <v>394</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="22" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="20" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A29" s="23" t="s">
-        <v>407</v>
+        <v>396</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
@@ -4692,12 +4423,12 @@
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="22" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="24" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
     </row>
   </sheetData>
@@ -4710,83 +4441,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C5"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.44140625" style="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6" style="25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="62.33203125" style="25" customWidth="1"/>
-    <col min="4" max="16384" width="9.109375" style="25"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
-        <v>395</v>
-      </c>
-      <c r="B2" s="26" t="s">
-        <v>396</v>
-      </c>
-      <c r="C2" s="26" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="27" t="s">
-        <v>348</v>
-      </c>
-      <c r="B3" s="27" t="s">
-        <v>328</v>
-      </c>
-      <c r="C3" s="27" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="64.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="27" t="s">
-        <v>399</v>
-      </c>
-      <c r="B4" s="27" t="s">
-        <v>378</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="27" t="s">
-        <v>409</v>
-      </c>
-      <c r="B5" s="27" t="s">
-        <v>400</v>
-      </c>
-      <c r="C5" s="29" t="s">
-        <v>401</v>
-      </c>
-    </row>
-  </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="/WdJTt0/igv2+2In5+FSpcwOCNEGZPmkePRhkIJxpfKay+7fJToO/gxrqYUNoUWtV+kfrV7CbXx7DUGRbEwftw==" saltValue="mciMBsrPwCWPS8ln0blYgA==" spinCount="100000" sheet="1" selectLockedCells="1" selectUnlockedCells="1"/>
-  <phoneticPr fontId="4"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4799,18 +4457,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
+        <v>329</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>330</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="C2" s="14" t="s">
         <v>331</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -4818,10 +4476,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -4829,10 +4487,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -4840,10 +4498,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="38.4" x14ac:dyDescent="0.25">
@@ -4851,20 +4509,20 @@
         <v>4</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B9" s="15" t="s">
         <v>2</v>
@@ -4878,10 +4536,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -4889,10 +4547,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
@@ -4900,10 +4558,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -4911,10 +4569,10 @@
         <v>4</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -4922,10 +4580,10 @@
         <v>5</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -4933,10 +4591,10 @@
         <v>6</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
   </sheetData>
@@ -4947,11 +4605,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F350"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E18" sqref="E18"/>
       <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
@@ -4970,22 +4628,22 @@
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>349</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>350</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>351</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>352</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>353</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -5153,7 +4811,7 @@
         <v>18</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -5181,7 +4839,7 @@
         <v>140</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="16" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -5307,7 +4965,7 @@
         <v>37</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>410</v>
+        <v>398</v>
       </c>
     </row>
     <row r="25" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -5321,7 +4979,7 @@
         <v>36</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>410</v>
+        <v>398</v>
       </c>
     </row>
     <row r="26" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -5681,7 +5339,7 @@
         <v>3</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="F51" s="4" t="s">
         <v>192</v>
@@ -5751,7 +5409,7 @@
         <v>44</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F56" s="4" t="s">
         <v>136</v>
@@ -5849,10 +5507,10 @@
         <v>44</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="64" spans="1:6" s="6" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
@@ -6115,10 +5773,10 @@
         <v>56</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="83" spans="1:6" s="6" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
@@ -6297,7 +5955,7 @@
         <v>45</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F95" s="4" t="s">
         <v>138</v>
@@ -6353,10 +6011,10 @@
         <v>45</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F99" s="4" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="100" spans="1:6" s="6" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
@@ -6605,10 +6263,10 @@
         <v>60</v>
       </c>
       <c r="E117" s="4" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="F117" s="4" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="118" spans="1:6" s="6" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
@@ -6829,7 +6487,7 @@
         <v>51</v>
       </c>
       <c r="E133" s="4" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F133" s="3" t="s">
         <v>50</v>
@@ -9025,10 +8683,10 @@
         <v>7</v>
       </c>
       <c r="D290" s="7" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E290" s="7" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F290" s="7"/>
     </row>
@@ -9037,10 +8695,10 @@
       <c r="B291" s="7"/>
       <c r="C291" s="7"/>
       <c r="D291" s="7" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E291" s="7" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F291" s="7"/>
     </row>
@@ -9049,10 +8707,10 @@
       <c r="B292" s="7"/>
       <c r="C292" s="7"/>
       <c r="D292" s="7" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E292" s="7" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F292" s="7"/>
     </row>

--- a/20210701_CJUGSEND_Dictionary_v3.0.xlsx
+++ b/20210701_CJUGSEND_Dictionary_v3.0.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68C63C3F-BAC3-4F55-B1A9-33B44004CF56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88A47452-A229-40D8-8DCE-2661AE2D61B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21900" yWindow="1035" windowWidth="17145" windowHeight="13800" tabRatio="815" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12252" tabRatio="815" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ReadMe" sheetId="2" r:id="rId1"/>
-    <sheet name="Instruction" sheetId="6" r:id="rId2"/>
-    <sheet name="CJUGSEND Terminology" sheetId="3" r:id="rId3"/>
+    <sheet name="Version" sheetId="5" r:id="rId2"/>
+    <sheet name="Instruction" sheetId="6" r:id="rId3"/>
+    <sheet name="CJUGSEND Terminology" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'CJUGSEND Terminology'!$A$1:$F$350</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'CJUGSEND Terminology'!$A$1:$F$350</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1105" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1118" uniqueCount="411">
   <si>
     <t>Yes</t>
   </si>
@@ -1329,36 +1330,40 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
+    <t>1.00</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
     <t>Standard for Exchange of Nonclinical Data Implementation Guide: Nonclinical Studies Version 3.0 (CDISC)</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>#</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>Sheet Name</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>Description</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>ReadMe</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>Version</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>Instruction</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>CJUGSEND Terminology</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>#</t>
@@ -1390,7 +1395,7 @@
   </si>
   <si>
     <t>Standard for Exchange of Nonclinical Data Implementation Guide: Nonclinical Studies Version 3.1 (CDISC)</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>SAMPLE AUTOLYZED</t>
@@ -1402,6 +1407,10 @@
   </si>
   <si>
     <t>TFREASND</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>2019-04-19</t>
     <phoneticPr fontId="4"/>
   </si>
   <si>
@@ -1484,7 +1493,7 @@
       </rPr>
       <t>サブチームリーダー</t>
     </r>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <r>
@@ -1513,7 +1522,7 @@
     <rPh sb="25" eb="27">
       <t>ジョウホウ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <r>
@@ -1632,7 +1641,7 @@
     <rPh sb="5" eb="7">
       <t>セツメイ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <r>
@@ -1653,7 +1662,7 @@
     <rPh sb="9" eb="11">
       <t>ジコウ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <r>
@@ -1671,7 +1680,7 @@
     <rPh sb="2" eb="4">
       <t>リレキ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <r>
@@ -1695,7 +1704,7 @@
     <rPh sb="14" eb="16">
       <t>セツメイ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <r>
@@ -1854,7 +1863,7 @@
     <rPh sb="85" eb="86">
       <t>フク</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <r>
@@ -2130,7 +2139,11 @@
   <si>
     <t>Introduction of check tool for SEND datasets via check list prepared by CDISC Japan User Group (CJUG) SEND team 
 (2019, PhUSE Computer Science Symposium)</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>2.00</t>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <r>
@@ -2153,7 +2166,7 @@
     <rPh sb="5" eb="6">
       <t>メイ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <r>
@@ -2180,7 +2193,7 @@
     <rPh sb="10" eb="12">
       <t>ジショ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <r>
@@ -2203,7 +2216,7 @@
     <rPh sb="0" eb="3">
       <t>サクセイシャ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <r>
@@ -2244,7 +2257,7 @@
       <t xml:space="preserve"> 
 (CDISC Japan User Group, SEND team, QC subteam)</t>
     </r>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <r>
@@ -2267,7 +2280,7 @@
     <rPh sb="0" eb="2">
       <t>セツメイ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <r>
@@ -2547,7 +2560,7 @@
     <rPh sb="435" eb="436">
       <t>ネガ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <r>
@@ -2570,7 +2583,7 @@
     <rPh sb="0" eb="4">
       <t>メンセキジコウ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <r>
@@ -2824,7 +2837,7 @@
     <rPh sb="187" eb="189">
       <t>カクニン</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <r>
@@ -2850,7 +2863,7 @@
     <rPh sb="2" eb="4">
       <t>ブンケン</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <r>
@@ -2876,7 +2889,7 @@
     <rPh sb="2" eb="4">
       <t>シリョウ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <r>
@@ -2968,7 +2981,7 @@
     <rPh sb="57" eb="59">
       <t>ネンカイ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <r>
@@ -3057,7 +3070,7 @@
     <rPh sb="50" eb="51">
       <t>カイ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <r>
@@ -3166,7 +3179,7 @@
     <rPh sb="57" eb="59">
       <t>ネンカイ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <r>
@@ -3271,7 +3284,7 @@
     <rPh sb="80" eb="82">
       <t>ソウカイ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <r>
@@ -3320,32 +3333,84 @@
     <rPh sb="35" eb="36">
       <t>ノ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>Study Data Technical Conformance Guide v. 4.7(FDA)</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>FDA Business Rules v1.5 (FDA)</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>FDA Validator Rules v1.5 (FDA)</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <r>
-      <t>SEND</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>対応における毒性研究者の必要性と</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>変更履歴</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>リレキ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>日時</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>ニチジ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>版数</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>ハンスウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>新規作成</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>変更：
+・シート「</t>
     </r>
     <r>
       <rPr>
@@ -3353,16 +3418,17 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>CJUG SEND</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>データチェック項目一覧の有用性</t>
+      <t>ReadMe</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>」：公開時点の最新情報へ変更
+・シート「</t>
     </r>
     <r>
       <rPr>
@@ -3370,7 +3436,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> (2020, </t>
+      <t>CJUGSEND Terminology</t>
     </r>
     <r>
       <rPr>
@@ -3379,7 +3445,7 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>第</t>
+      <t>」：</t>
     </r>
     <r>
       <rPr>
@@ -3387,7 +3453,8 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>47</t>
+      <t xml:space="preserve">
+</t>
     </r>
     <r>
       <rPr>
@@ -3396,7 +3463,7 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>回</t>
+      <t>　・</t>
     </r>
     <r>
       <rPr>
@@ -3404,7 +3471,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> </t>
+      <t>SSPONSOR, TSLOC, TSNAM, TSTFLOC, TSTFNAM</t>
     </r>
     <r>
       <rPr>
@@ -3413,7 +3480,111 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>日本毒性学会年会</t>
+      <t>を最新情報へ更新</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・その他、誤記修正</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="101" eb="103">
+      <t>サイシン</t>
+    </rPh>
+    <rPh sb="103" eb="105">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="106" eb="108">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="112" eb="113">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="114" eb="116">
+      <t>ゴキ</t>
+    </rPh>
+    <rPh sb="116" eb="118">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>2020-05-01</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>3.00</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>変更：
+・シート「ReadMe」：公開時点の最新情報へ変更
+・シート「CJUGSEND Terminology」：
+　・SSPONSOR, TSLOC, TSNAM, TSTFLOC, TSTFNAMを最新情報へ更新
+・その他、誤記修正</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="101" eb="103">
+      <t>サイシン</t>
+    </rPh>
+    <rPh sb="103" eb="105">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="106" eb="108">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="112" eb="113">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="114" eb="116">
+      <t>ゴキ</t>
+    </rPh>
+    <rPh sb="116" eb="118">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Study Data Technical Conformance Guide v. 4.7(FDA)</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>FDA Business Rules v1.5 (FDA)</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>FDA Validator Rules v1.5 (FDA)</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <r>
+      <t>SEND</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>対応における毒性研究者の必要性と</t>
     </r>
     <r>
       <rPr>
@@ -3421,6 +3592,74 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
+      <t>CJUG SEND</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>データチェック項目一覧の有用性</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (2020, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>第</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>47</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>回</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>日本毒性学会年会</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
       <t>)</t>
     </r>
     <rPh sb="52" eb="53">
@@ -3441,7 +3680,7 @@
     <rPh sb="63" eb="65">
       <t>ネンカイ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <r>
@@ -3550,7 +3789,7 @@
     <rPh sb="58" eb="60">
       <t>ネンカイ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>秋葉 晃次 (三井Ｅ＆Ｓシステム技研株式会社), 魚田 孝志 (株式会社ＣＡＣクロア), 牛丸 忠士（株式会社イナリサーチ）, 加賀伸彦（持田製薬株式会社）, 金子 吉史 (杏林製薬株式会社), 北原 輝和 (インステムジャパン株式会社), 佐藤 玄 (エーザイ株式会社), 佐藤 耕一 (株式会社タクミインフォメーションテクノロジー), 諏訪 浩一 (株式会社ボゾリサーチセンター), 土屋 待希 (富士通株式会社),  高見 清佳 (株式会社日本バイオリサーチセンター), 中澤　千弘 (エーザイ株式会社), 中野 薫, 浜田 淳 (日本たばこ株式会社), 藤村 義則 (富士通株式会社), 堀川 真一 (株式会社イナリサーチ), 益崎 泰宏 (日本たばこ株式会社), 松村美沙 (塩野義製薬株式会社), 向井 東希, 守田 淳哉 (大正製薬株式会社), 保田 昂之 (株式会社CACクロア), 山本 大 (株式会社LSIメディエンス), 榊原 雄太 (協和キリン株式会社)*</t>
@@ -3638,7 +3877,7 @@
     <rPh sb="434" eb="438">
       <t>カブシキガイシャ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <r>
@@ -3693,6 +3932,10 @@
       </rPr>
       <t>までお願いいたします。</t>
     </r>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>2021-07-01</t>
     <phoneticPr fontId="4"/>
   </si>
   <si>
@@ -3735,7 +3978,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -3762,6 +4005,11 @@
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -3802,7 +4050,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3812,6 +4060,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="43"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3863,11 +4117,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3899,7 +4153,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3908,10 +4162,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3936,11 +4190,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -4294,22 +4563,22 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
@@ -4317,12 +4586,12 @@
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="155.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4330,92 +4599,92 @@
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="51.6" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
-        <v>391</v>
+        <v>402</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
-        <v>392</v>
+        <v>403</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="22" t="s">
-        <v>393</v>
+        <v>404</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="22" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="22" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="20" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="22" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="22" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A22" s="22" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="22" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A24" s="22" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="22" t="s">
-        <v>394</v>
+        <v>405</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="22" t="s">
-        <v>395</v>
+        <v>406</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="20" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A29" s="23" t="s">
-        <v>396</v>
+        <v>407</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
@@ -4423,12 +4692,12 @@
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="22" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="24" t="s">
-        <v>397</v>
+        <v>408</v>
       </c>
     </row>
   </sheetData>
@@ -4441,10 +4710,83 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.44140625" style="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6" style="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="62.33203125" style="25" customWidth="1"/>
+    <col min="4" max="16384" width="9.109375" style="25"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="25" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="26" t="s">
+        <v>395</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>396</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="27" t="s">
+        <v>348</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>328</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="64.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="27" t="s">
+        <v>399</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>378</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="27" t="s">
+        <v>409</v>
+      </c>
+      <c r="B5" s="27" t="s">
+        <v>400</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>401</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="/WdJTt0/igv2+2In5+FSpcwOCNEGZPmkePRhkIJxpfKay+7fJToO/gxrqYUNoUWtV+kfrV7CbXx7DUGRbEwftw==" saltValue="mciMBsrPwCWPS8ln0blYgA==" spinCount="100000" sheet="1" selectLockedCells="1" selectUnlockedCells="1"/>
+  <phoneticPr fontId="4"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4457,18 +4799,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -4476,10 +4818,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -4487,10 +4829,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -4498,10 +4840,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="38.4" x14ac:dyDescent="0.25">
@@ -4509,20 +4851,20 @@
         <v>4</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B9" s="15" t="s">
         <v>2</v>
@@ -4536,10 +4878,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -4547,10 +4889,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
@@ -4558,10 +4900,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -4569,10 +4911,10 @@
         <v>4</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -4580,10 +4922,10 @@
         <v>5</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -4591,10 +4933,10 @@
         <v>6</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
     </row>
   </sheetData>
@@ -4605,11 +4947,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F350"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E18" sqref="E18"/>
       <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
@@ -4628,22 +4970,22 @@
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -4811,7 +5153,7 @@
         <v>18</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -4839,7 +5181,7 @@
         <v>140</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
     </row>
     <row r="16" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -4965,7 +5307,7 @@
         <v>37</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>398</v>
+        <v>410</v>
       </c>
     </row>
     <row r="25" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -4979,7 +5321,7 @@
         <v>36</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>398</v>
+        <v>410</v>
       </c>
     </row>
     <row r="26" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -5339,7 +5681,7 @@
         <v>3</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="F51" s="4" t="s">
         <v>192</v>
@@ -5409,7 +5751,7 @@
         <v>44</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="F56" s="4" t="s">
         <v>136</v>
@@ -5507,10 +5849,10 @@
         <v>44</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="64" spans="1:6" s="6" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
@@ -5773,10 +6115,10 @@
         <v>56</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="83" spans="1:6" s="6" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
@@ -5955,7 +6297,7 @@
         <v>45</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="F95" s="4" t="s">
         <v>138</v>
@@ -6011,10 +6353,10 @@
         <v>45</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="F99" s="4" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="100" spans="1:6" s="6" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
@@ -6263,10 +6605,10 @@
         <v>60</v>
       </c>
       <c r="E117" s="4" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="F117" s="4" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="118" spans="1:6" s="6" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
@@ -6487,7 +6829,7 @@
         <v>51</v>
       </c>
       <c r="E133" s="4" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="F133" s="3" t="s">
         <v>50</v>
@@ -8683,10 +9025,10 @@
         <v>7</v>
       </c>
       <c r="D290" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="E290" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="F290" s="7"/>
     </row>
@@ -8695,10 +9037,10 @@
       <c r="B291" s="7"/>
       <c r="C291" s="7"/>
       <c r="D291" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="E291" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F291" s="7"/>
     </row>
@@ -8707,10 +9049,10 @@
       <c r="B292" s="7"/>
       <c r="C292" s="7"/>
       <c r="D292" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="E292" s="7" t="s">
         <v>346</v>
-      </c>
-      <c r="E292" s="7" t="s">
-        <v>345</v>
       </c>
       <c r="F292" s="7"/>
     </row>
